--- a/documentatie/Testplan - AO - 2017 - ict college.xlsx
+++ b/documentatie/Testplan - AO - 2017 - ict college.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proftaak2\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A7238E-C3FD-4783-9960-25591D87B0B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{79249B28-D8D6-40BE-BDE5-3F25C73DE476}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$36</definedName>
   </definedNames>
   <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>nr</t>
   </si>
@@ -209,6 +209,189 @@
   </si>
   <si>
     <t>Nieuw document</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: Melding krijgen dat je een nieuwe versie maakt</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: Er moet een nieuwe versie aangemaakt worden</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: Bronbestanden moeten gedownload worden als PDF</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: Bronbestanden moeten gedownload worden met het originele bestandstype</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: Ingeladen bronbestanden moeten gedelete kunnen worden</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: Ingeladen bronbestanden moet de versie veranderd kunnen worden</t>
+  </si>
+  <si>
+    <t>nieuwe bronbestanden kunnen toegevoegd kunnen worden</t>
+  </si>
+  <si>
+    <t>Bronbestanden kunnen verwijderd kunnen worden</t>
+  </si>
+  <si>
+    <t>Bronbestanden moeten gedownload kunnen worden in PDF</t>
+  </si>
+  <si>
+    <t>Origineel bestandstype moet gedownload kunnen worden</t>
+  </si>
+  <si>
+    <t>Controleer of het bestand al bestaat</t>
+  </si>
+  <si>
+    <t>Als er op de naam geklikt word moet er een preview van het document weergegeven worden</t>
+  </si>
+  <si>
+    <t>Ingevoerde naam controleren op toegestaande karakters</t>
+  </si>
+  <si>
+    <t>met mergen: aan kunnen geven welke pagina's</t>
+  </si>
+  <si>
+    <t>met mergen: PDF bestanden worden samengevoegd en in de database gezet</t>
+  </si>
+  <si>
+    <t>met mergen: pagina input moet gecontroleerd worden</t>
+  </si>
+  <si>
+    <t>Vanaf homepagina edit: juiste bronbestanden moeten ingeladen worden</t>
+  </si>
+  <si>
+    <t>Lijst met de juiste bronbestaanden staat in het drag 'n drop vak</t>
+  </si>
+  <si>
+    <t>Bestand word gedownload</t>
+  </si>
+  <si>
+    <t>Bronbestand gaat uit de lijst</t>
+  </si>
+  <si>
+    <t>Word veranderd als er op update geklikt word</t>
+  </si>
+  <si>
+    <t>Als er op update gedrukt moet worden word er een melding weergegeven dat het geen nieuw bestand is</t>
+  </si>
+  <si>
+    <t>Moet in de database worden gedaan</t>
+  </si>
+  <si>
+    <t>Gebruiker moet een bestand kunnen inslepen</t>
+  </si>
+  <si>
+    <t>Bestand gaat uid de lijst</t>
+  </si>
+  <si>
+    <t>PDF bestand word gedownload</t>
+  </si>
+  <si>
+    <t>Als het bestand al bestaat komt er een melding</t>
+  </si>
+  <si>
+    <t>Je kan het PDF bestand in een iframe zien</t>
+  </si>
+  <si>
+    <t>Er word een melding weergegeven als er verboden karakters in staan</t>
+  </si>
+  <si>
+    <t>De PDF bestanden worden gesplit als het nodig is</t>
+  </si>
+  <si>
+    <t>Hij komt ook op de homepagina te staan</t>
+  </si>
+  <si>
+    <t>Er komt een melding dat er verboden karakters in staan</t>
+  </si>
+  <si>
+    <t>Word nog niet gecheckt</t>
+  </si>
+  <si>
+    <t>Bronteksten</t>
+  </si>
+  <si>
+    <t>Nieuw bestand toevoegen</t>
+  </si>
+  <si>
+    <t>Alleen colleges weergeven waar je rechten voor hebt</t>
+  </si>
+  <si>
+    <t>Er komt een popup waar bestanden geupload kunnen worden</t>
+  </si>
+  <si>
+    <t>Als het bestand komt er een melding en als je de rechten hebt word er een nieuwe versie gemaakt</t>
+  </si>
+  <si>
+    <t>De dropdowns laten alleen colleges zien waar je rechten voor hebt</t>
+  </si>
+  <si>
+    <t>Bronbestanden editen</t>
+  </si>
+  <si>
+    <t>bronbestanden verwijderen</t>
+  </si>
+  <si>
+    <t>Als je rechten hebt zie je een knop voor edit, dan word er een nieuwe versie gemaakt</t>
+  </si>
+  <si>
+    <t>Als je rechten hebt zie je een knop voor verwijderen, alle versies worden dan verwijderd uit de database en bestanden van de server</t>
+  </si>
+  <si>
+    <t>bestanden worden niet verwijderd van de server</t>
+  </si>
+  <si>
+    <t>Bronbestanden downloaden als PDF</t>
+  </si>
+  <si>
+    <t>Als je rechten hebt kan je het bestand als PDF downloaden</t>
+  </si>
+  <si>
+    <t>Kan nog niet</t>
+  </si>
+  <si>
+    <t>Bronbestanden downloaden in origineel bestandstype</t>
+  </si>
+  <si>
+    <t>Als je rechten hebt kan je het bestand  downloaden</t>
+  </si>
+  <si>
+    <t>Manage pagina</t>
+  </si>
+  <si>
+    <t>Nieuw college aanmaken</t>
+  </si>
+  <si>
+    <t>Nieuwe opleiding aanmaken</t>
+  </si>
+  <si>
+    <t>College verwijderen</t>
+  </si>
+  <si>
+    <t>Opleiding verwijderen</t>
+  </si>
+  <si>
+    <t>Nieuw college komt in de database</t>
+  </si>
+  <si>
+    <t>Nieuwe opleiding komt in de database</t>
+  </si>
+  <si>
+    <t>College word verwijderd uit de database</t>
+  </si>
+  <si>
+    <t>Opleiding word verwijderd uit de datbase</t>
+  </si>
+  <si>
+    <t>Gebruiker rechten per college aanpassen</t>
+  </si>
+  <si>
+    <t>gebruiker algemen rechten aanpassen</t>
+  </si>
+  <si>
+    <t>Word aangepast in de database</t>
   </si>
 </sst>
 </file>
@@ -592,18 +775,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="5" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.33203125" style="5" customWidth="1"/>
@@ -901,8 +1084,412 @@
         <v>59</v>
       </c>
     </row>
+    <row r="27" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:I37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documentatie/Testplan - AO - 2017 - ict college.xlsx
+++ b/documentatie/Testplan - AO - 2017 - ict college.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proftaak2\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Semester 4\web\proftaak2\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{79249B28-D8D6-40BE-BDE5-3F25C73DE476}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D450215-C9A0-40C9-99D2-2530BC6155F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,25 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,30 +473,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,22 +778,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="4" style="2" customWidth="1"/>
     <col min="8" max="8" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.6640625" style="3" customWidth="1"/>
@@ -797,700 +803,1064 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+      <c r="G19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
+      <c r="G20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="G21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="G22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+      <c r="G23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+      <c r="G27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="5" t="s">
+      <c r="G28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="5" t="s">
+      <c r="G29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
+      <c r="G30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
+      <c r="G31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C33" s="5" t="s">
+      <c r="G32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C34" s="5" t="s">
+      <c r="G33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
+      <c r="G34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="5" t="s">
+      <c r="G35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C37" s="5" t="s">
+      <c r="G36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="5" t="s">
+      <c r="G37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C39" s="5" t="s">
+      <c r="G38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C40" s="5" t="s">
+      <c r="G39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C41" s="5" t="s">
+      <c r="G40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
+      <c r="G41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
+      <c r="G42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C45" s="5" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C46" s="5" t="s">
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C47" s="5" t="s">
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C48" s="5" t="s">
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C49" s="5" t="s">
+      <c r="G48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C50" s="5" t="s">
+      <c r="G49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
+      <c r="G50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C52" s="5" t="s">
+      <c r="G51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C53" s="5" t="s">
+      <c r="G52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C54" s="5" t="s">
+      <c r="G53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="G55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C56" s="5" t="s">
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="G56" s="8"/>
+      <c r="H56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="5" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="5" t="s">
+      <c r="G58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="5" t="s">
+      <c r="G59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="5" t="s">
+      <c r="G60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="5" t="s">
+      <c r="G61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="5" t="s">
+      <c r="G62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11" t="s">
         <v>120</v>
       </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>